--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDF\AICT project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F1F1D6-5451-470C-A15D-708FC99BFC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133B6957-5F39-4889-AA65-CF60CA98CB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2F451D5-C88D-4595-A4F4-A2744DFB768A}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>SAMOSAS WITH CHUTNEY</t>
   </si>
   <si>
-    <t>FRESH FRIES WITH Dips</t>
-  </si>
-  <si>
     <t>FRESH GARDEN SALAD</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>MEDITERRANEAN PLATTER</t>
   </si>
   <si>
-    <t>Pumpkin SOUP</t>
-  </si>
-  <si>
     <t>VEGETABLE SOUP</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>PASTA WITH VEGETABLES</t>
   </si>
   <si>
-    <t>DESSERT Plate</t>
-  </si>
-  <si>
     <t>MIXED CHICKEN</t>
   </si>
   <si>
@@ -99,15 +90,6 @@
     <t>FRUIT PORRIDGE</t>
   </si>
   <si>
-    <t>GRILLED Fish</t>
-  </si>
-  <si>
-    <t>Beef steek</t>
-  </si>
-  <si>
-    <t>Chicken Wrap</t>
-  </si>
-  <si>
     <t>CHOCOLATE CAKE</t>
   </si>
   <si>
@@ -132,13 +114,31 @@
     <t>CRISPY FRIED CHICKEN</t>
   </si>
   <si>
-    <t>FRUIT &amp; YOGURT Bowl</t>
-  </si>
-  <si>
     <t>CHEESE PIZZA</t>
   </si>
   <si>
     <t>Starter</t>
+  </si>
+  <si>
+    <t>PUMPKIN SOUP</t>
+  </si>
+  <si>
+    <t>FRESH FRIES WITH DIPS</t>
+  </si>
+  <si>
+    <t>FRUIT &amp; YOGURT BOWL</t>
+  </si>
+  <si>
+    <t>DESSERT PLATE</t>
+  </si>
+  <si>
+    <t>GRILLED FISH</t>
+  </si>
+  <si>
+    <t>BEEF STEEK</t>
+  </si>
+  <si>
+    <t>CHICKEN WRAP</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,6 +334,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF808080"/>
+      <color rgb="FF333333"/>
       <color rgb="FF0066CC"/>
       <color rgb="FF0033CC"/>
     </mruColors>
@@ -670,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1A5570-5AE8-48B1-8141-F83B63B53216}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +694,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -717,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -725,10 +727,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3">
         <v>13</v>
@@ -740,10 +742,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3">
         <v>12</v>
@@ -757,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3">
         <v>15</v>
@@ -771,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
         <v>11</v>
@@ -785,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3">
         <v>19</v>
@@ -799,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3">
         <v>20</v>
@@ -810,10 +812,10 @@
         <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3">
         <v>21</v>
@@ -824,10 +826,10 @@
         <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3">
         <v>16</v>
@@ -838,10 +840,10 @@
         <v>109</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3">
         <v>17</v>
@@ -852,10 +854,10 @@
         <v>110</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3">
         <v>22</v>
@@ -866,10 +868,10 @@
         <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3">
         <v>14</v>
@@ -880,10 +882,10 @@
         <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3">
         <v>12</v>
@@ -894,10 +896,10 @@
         <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3">
         <v>11</v>
@@ -908,10 +910,10 @@
         <v>114</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3">
         <v>18</v>
@@ -922,10 +924,10 @@
         <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3">
         <v>19</v>
@@ -936,10 +938,10 @@
         <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3">
         <v>20</v>
@@ -950,10 +952,10 @@
         <v>117</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3">
         <v>23</v>
@@ -964,10 +966,10 @@
         <v>118</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3">
         <v>16</v>
@@ -978,10 +980,10 @@
         <v>119</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3">
         <v>26</v>
@@ -992,10 +994,10 @@
         <v>120</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3">
         <v>23</v>
@@ -1006,10 +1008,10 @@
         <v>121</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3">
         <v>28</v>
@@ -1020,10 +1022,10 @@
         <v>122</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26" s="3">
         <v>30</v>
@@ -1034,10 +1036,10 @@
         <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D27" s="3">
         <v>24</v>
@@ -1048,10 +1050,10 @@
         <v>124</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3">
         <v>45</v>
